--- a/www/ig/fhir/sas/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T14:00:55+00:00</t>
+    <t>2024-09-05T16:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/sas/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T16:04:17+00:00</t>
+    <t>2024-12-10T11:32:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Slot, dérivé de FrSlot, pour le service d'agrégation de créneaux de la plateforme SAS (Service d'accès aux soins), dans le cadre du cas d'usage CPTS</t>
+    <t>Profil de Slot, dérivé de FrSlot, pour le cas d'usage agrégateur de la plateforme SAS - cas d'usage CPTS</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/www/ig/fhir/sas/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T11:32:52+00:00</t>
+    <t>2025-11-24T14:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -400,7 +400,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -413,14 +413,14 @@
     <t>Slot.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -472,7 +472,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -1489,17 +1489,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.1640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.4453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.72265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.38671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.41796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1508,21 +1508,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="80.92578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.3828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.0546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
